--- a/Backlash/Standard_Deviation and Max.xlsx
+++ b/Backlash/Standard_Deviation and Max.xlsx
@@ -1,82 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MSc Digital Engg\Projects\DE Controller KUKA\Git\kuka_controller_project\Backlash\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BFC3A1D-2846-4118-AE40-18E5A0B9D5C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-45" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Backlash" sheetId="1" r:id="rId1"/>
-    <sheet name="Comparator" sheetId="2" r:id="rId2"/>
-    <sheet name="Diff" sheetId="3" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Backlash" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Comparator" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="9">
-  <si>
-    <t>Axis1</t>
-  </si>
-  <si>
-    <t>Axis2</t>
-  </si>
-  <si>
-    <t>Axis3</t>
-  </si>
-  <si>
-    <t>Axis4</t>
-  </si>
-  <si>
-    <t>Axis5</t>
-  </si>
-  <si>
-    <t>Axis6</t>
-  </si>
-  <si>
-    <t>Standard Deviation</t>
-  </si>
-  <si>
-    <t>Maximum</t>
-  </si>
-  <si>
-    <t>Difference</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -95,21 +48,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -397,77 +409,124 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <v>3.4307933657109227E-2</v>
-      </c>
-      <c r="C3">
-        <v>5.386605188650289E-2</v>
-      </c>
-      <c r="D3">
-        <v>4.9533047470717399E-2</v>
-      </c>
-      <c r="E3">
-        <v>6.2072921727417268E-2</v>
-      </c>
-      <c r="F3">
-        <v>0.10034737364513591</v>
-      </c>
-      <c r="G3">
-        <v>0.11554135924100629</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <v>0.11293054272015469</v>
-      </c>
-      <c r="C4">
-        <v>0.17230870341441801</v>
-      </c>
-      <c r="D4">
-        <v>0.15069098055550281</v>
-      </c>
-      <c r="E4">
+    <row r="1">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Axis1</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Axis2</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Axis3</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Axis4</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Axis5</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Axis6</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Standard Deviation</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.03430793365710923</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.05386605188650294</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.04953304747071741</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.06207292172741727</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.1003473736451359</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.1155413592410063</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Maximum</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.1129305427201547</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.172308703414418</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1506909805555028</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.1894539524460549</v>
       </c>
-      <c r="F4">
-        <v>0.33579541217307018</v>
-      </c>
-      <c r="G4">
-        <v>0.39315878188705938</v>
+      <c r="F4" t="n">
+        <v>0.3357954121730702</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.3931587818870594</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Mean</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.03952488924483842</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.05470834490988615</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.04926239277791285</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.08455805712333893</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.121961191764681</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.1471218461543054</v>
       </c>
     </row>
   </sheetData>
@@ -476,144 +535,124 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <v>3.2031020765167992E-2</v>
-      </c>
-      <c r="C3">
-        <v>1.4895419291991851E-2</v>
-      </c>
-      <c r="D3">
-        <v>4.6642015742586321E-2</v>
-      </c>
-      <c r="E3">
-        <v>0.1030956420744194</v>
-      </c>
-      <c r="F3">
-        <v>0.1336075426996893</v>
-      </c>
-      <c r="G3">
-        <v>0.2213068518540692</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <v>0.11873366222200731</v>
-      </c>
-      <c r="C4">
-        <v>5.951427776167928E-2</v>
-      </c>
-      <c r="D4">
-        <v>0.16013627487259449</v>
-      </c>
-      <c r="E4">
-        <v>0.29304374670382738</v>
-      </c>
-      <c r="F4">
-        <v>0.43052576785861701</v>
-      </c>
-      <c r="G4">
-        <v>0.73619090564702727</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3FB0261-AC47-4966-B20C-1D69DABA0BD9}">
-  <dimension ref="A1:G3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3">
-        <f>ABS(Backlash!B3 - Comparator!B3)</f>
-        <v>2.2769128919412351E-3</v>
-      </c>
-      <c r="C3">
-        <f>ABS(Backlash!C3 - Comparator!C3)</f>
-        <v>3.8970632594511043E-2</v>
-      </c>
-      <c r="D3">
-        <f>ABS(Backlash!D3 - Comparator!D3)</f>
-        <v>2.8910317281310785E-3</v>
-      </c>
-      <c r="E3">
-        <f>ABS(Backlash!E3 - Comparator!E3)</f>
-        <v>4.1022720347002134E-2</v>
-      </c>
-      <c r="F3">
-        <f>ABS(Backlash!F3 - Comparator!F3)</f>
-        <v>3.3260169054553396E-2</v>
-      </c>
-      <c r="G3">
-        <f>ABS(Backlash!G3 - Comparator!G3)</f>
-        <v>0.10576549261306291</v>
+    <row r="1">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Axis1</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Axis2</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Axis3</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Axis4</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Axis5</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Axis6</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Standard Deviation</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.03203102076516798</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.01489541929199186</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.04664201574258631</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.1030956420744194</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.1336075426996893</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.2213068518540692</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Maximum</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.1187336622220073</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.05951427776167928</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1601362748725945</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.2930437467038274</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.430525767858617</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.7361909056470273</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Mean</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.0330207805596446</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.008089330440325988</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.03872105868411348</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.113327976249998</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.1189783104330114</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.2668262757533513</v>
       </c>
     </row>
   </sheetData>
